--- a/biology/Zoologie/Episcada_philoclea/Episcada_philoclea.xlsx
+++ b/biology/Zoologie/Episcada_philoclea/Episcada_philoclea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada philoclea est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada philoclea a été décrit par William Chapman Hewitson en 1855 sous le nom initial d' Ithomia philoclea[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada philoclea a été décrit par William Chapman Hewitson en 1855 sous le nom initial d' Ithomia philoclea.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada philoclea est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
 Les ailes sont transparentes avec de très fines veines marron et une bordure des bords et du tour de la cellule, marron sur le dessus, ocre doré sur le revers.
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,12 +618,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada philoclea est présent au Brésil[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada philoclea est présent au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_philoclea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_philoclea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada philoclea, sur Wikimedia CommonsEpiscada philoclea, sur Wikispecies
 </t>
